--- a/biology/Médecine/Malaria_Atlas_Project/Malaria_Atlas_Project.xlsx
+++ b/biology/Médecine/Malaria_Atlas_Project/Malaria_Atlas_Project.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Malaria Atlas Project (MAP en abrégé) est un projet financé principalement par le Wellcome Trust (Royaume-Uni)[1]. Il s’agit d’une initiative mené conjointement par le Malaria Public Health &amp; Epidemiology Group (Centre for Geographic Medicine, Kenya) et le Spatial Ecology &amp; Epidemiology Group (Oxford University, Royaume-Uni). Deux noyaux complémentaires, situés en Amérique (États-Unis et Équateur) et en région Asie-Pacifique (Vietnam et Indonésie), participent également à ce projet.
+Le Malaria Atlas Project (MAP en abrégé) est un projet financé principalement par le Wellcome Trust (Royaume-Uni). Il s’agit d’une initiative mené conjointement par le Malaria Public Health &amp; Epidemiology Group (Centre for Geographic Medicine, Kenya) et le Spatial Ecology &amp; Epidemiology Group (Oxford University, Royaume-Uni). Deux noyaux complémentaires, situés en Amérique (États-Unis et Équateur) et en région Asie-Pacifique (Vietnam et Indonésie), participent également à ce projet.
 Les connaissances spatiales et médicales sont essentielles pour une gestion efficace du contrôle du paludisme et son élimination. Quarante ans se sont écoulés depuis le dernier effort sérieux de cartographie du paludisme. Le Malaria Atlas Project (MAP) a été fondé en 2005 pour combler cette niche afin d’aider les programmes de lutte contre le paludisme à l’échelle mondiale.
-L’équipe du MAP a assemblé une base de données spatiales unique contenant des informations basées à la fois sur l’expertise médicale et des données climatiques dérivées d’images satellites afin de délimiter les limites de transmission du paludisme[2] et sur le plus grand ensemble de données sur les taux de parasitisme jamais rassemblé[3]. Ces données ont été collectées et analysées par une équipe multidisciplinaire constituée de géographes, de statisticiens, d’épidémiologistes, de biologistes et de spécialistes en santé publique.
-Initialement, le MAP s’est concentré sur la prédiction de l’endémicité du paludisme causé par Plasmodium falciparum[4], le parasite le plus mortel, en raison de son importance médicale à l’échelle globale et des meilleures perspectives concernant son élimination et son contrôle. En 2009, ces recherches seront étendues à la distribution et aux risques liés à Plasmodium vivax, un autre parasite important trop souvent négligé.
+L’équipe du MAP a assemblé une base de données spatiales unique contenant des informations basées à la fois sur l’expertise médicale et des données climatiques dérivées d’images satellites afin de délimiter les limites de transmission du paludisme et sur le plus grand ensemble de données sur les taux de parasitisme jamais rassemblé. Ces données ont été collectées et analysées par une équipe multidisciplinaire constituée de géographes, de statisticiens, d’épidémiologistes, de biologistes et de spécialistes en santé publique.
+Initialement, le MAP s’est concentré sur la prédiction de l’endémicité du paludisme causé par Plasmodium falciparum, le parasite le plus mortel, en raison de son importance médicale à l’échelle globale et des meilleures perspectives concernant son élimination et son contrôle. En 2009, ces recherches seront étendues à la distribution et aux risques liés à Plasmodium vivax, un autre parasite important trop souvent négligé.
 </t>
         </is>
       </c>
